--- a/AttackSimulationModel/node_inputs.xlsx
+++ b/AttackSimulationModel/node_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Models\AttackSimulation\AttackSimulationModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B36B95D-CBF3-4088-AAFC-02659B0174EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3CC6E9-0818-45A4-9D12-9459A07C1356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="23715" windowHeight="14760" xr2:uid="{2E34376E-5056-4BF7-A421-5DDCB46FDBC9}"/>
+    <workbookView xWindow="-24015" yWindow="135" windowWidth="23715" windowHeight="14760" xr2:uid="{2E34376E-5056-4BF7-A421-5DDCB46FDBC9}"/>
   </bookViews>
   <sheets>
     <sheet name="node_inputs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>node_name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>node_position</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>node_goes_down</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Flag</t>
+  </si>
+  <si>
+    <t>node_count</t>
+  </si>
+  <si>
+    <t>node_id</t>
   </si>
 </sst>
 </file>
@@ -422,143 +425,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5A5C86-7243-490E-A200-D551638E2861}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/AttackSimulationModel/node_inputs.xlsx
+++ b/AttackSimulationModel/node_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Models\AttackSimulation\AttackSimulationModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3CC6E9-0818-45A4-9D12-9459A07C1356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006A15A-25BF-4180-BAA4-E2B1096464C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24015" yWindow="135" windowWidth="23715" windowHeight="14760" xr2:uid="{2E34376E-5056-4BF7-A421-5DDCB46FDBC9}"/>
+    <workbookView xWindow="-26445" yWindow="675" windowWidth="23715" windowHeight="14760" xr2:uid="{2E34376E-5056-4BF7-A421-5DDCB46FDBC9}"/>
   </bookViews>
   <sheets>
     <sheet name="node_inputs" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>

--- a/AttackSimulationModel/node_inputs.xlsx
+++ b/AttackSimulationModel/node_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Models\AttackSimulation\AttackSimulationModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006A15A-25BF-4180-BAA4-E2B1096464C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B248B1-B116-4376-AA6F-6585C65FE1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="675" windowWidth="23715" windowHeight="14760" xr2:uid="{2E34376E-5056-4BF7-A421-5DDCB46FDBC9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E34376E-5056-4BF7-A421-5DDCB46FDBC9}"/>
   </bookViews>
   <sheets>
     <sheet name="node_inputs" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>node_goes_down</t>
   </si>
   <si>
-    <t>Exchange Server</t>
-  </si>
-  <si>
     <t>Workstation</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>node_id</t>
+  </si>
+  <si>
+    <t>Email Server</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -479,13 +479,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -530,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>6</v>
